--- a/EstrattoConto VincenzoVerdi.xlsx
+++ b/EstrattoConto VincenzoVerdi.xlsx
@@ -134,8 +134,7 @@
     <t>15.10.19</t>
   </si>
   <si>
-    <t>PAGAMENTO PER UTILIZZO CARTE DI CREDITO
-ESTRATTO 09/2019 RAPPORTO FK 00704 00000021348981</t>
+    <t>imu</t>
   </si>
   <si>
     <t>1.318,14</t>
@@ -704,7 +703,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,14 +713,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="17"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -733,44 +738,44 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -917,133 +922,133 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1380,7 +1385,7 @@
     <col min="12" max="12" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="25.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1396,7 +1401,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="25.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6"/>
@@ -1410,7 +1415,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1433,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1451,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
@@ -1460,7 +1465,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="12">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1489,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1509,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="26.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
       <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1531,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1553,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1575,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1597,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1619,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
